--- a/src/assets/docs/Import_Khach_Hang.xlsx
+++ b/src/assets/docs/Import_Khach_Hang.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
   <si>
     <t>VÕ VĂN HÙNG</t>
   </si>
@@ -43,9 +43,6 @@
     <t>74D1-14973</t>
   </si>
   <si>
-    <t>'0979591163</t>
-  </si>
-  <si>
     <t>74H4-7442</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>27/02/1987</t>
   </si>
   <si>
-    <t>28/01/1988</t>
-  </si>
-  <si>
     <t>28/01/1989</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
     <t>27/02/1992</t>
   </si>
   <si>
-    <t>27/02/1993</t>
-  </si>
-  <si>
-    <t>27/02/1994</t>
-  </si>
-  <si>
     <t>27/02/1995</t>
   </si>
   <si>
@@ -467,6 +455,33 @@
   </si>
   <si>
     <t>485000</t>
+  </si>
+  <si>
+    <t>LAM TEST</t>
+  </si>
+  <si>
+    <t>28/08/1989</t>
+  </si>
+  <si>
+    <t>0934901567</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>33000</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>01/08/2019</t>
+  </si>
+  <si>
+    <t>01/06/2019</t>
+  </si>
+  <si>
+    <t>30/07/2019</t>
   </si>
 </sst>
 </file>
@@ -892,7 +907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -925,49 +940,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -978,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -987,32 +1002,32 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -1023,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1032,28 +1047,28 @@
         <v>4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -1062,80 +1077,86 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+        <v>137</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -1145,38 +1166,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
@@ -1186,38 +1209,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -1227,44 +1250,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -1272,38 +1297,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="H9" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -1316,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -1325,26 +1352,26 @@
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1354,38 +1381,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -1395,38 +1422,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1436,38 +1463,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -1477,40 +1504,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -1520,41 +1547,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>141</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
     </row>
@@ -1563,40 +1588,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="K16" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -3305,19 +3330,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,16 +3350,16 @@
         <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,16 +3367,16 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,247 +3384,247 @@
         <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/docs/Import_Khach_Hang.xlsx
+++ b/src/assets/docs/Import_Khach_Hang.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
   <si>
     <t>VÕ VĂN HÙNG</t>
   </si>
@@ -482,6 +482,18 @@
   </si>
   <si>
     <t>30/07/2019</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Thay phụ tùng</t>
+  </si>
+  <si>
+    <t>Thay nhớt</t>
   </si>
 </sst>
 </file>
@@ -907,7 +919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,7 +930,7 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1034,9 @@
       <c r="L2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="N2" s="17" t="s">
         <v>142</v>
       </c>
@@ -1067,9 +1081,7 @@
       <c r="L3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
@@ -1111,7 +1123,7 @@
         <v>134</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>147</v>
@@ -1128,8 +1140,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>8</v>
@@ -1156,7 +1168,7 @@
         <v>134</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -1171,8 +1183,8 @@
       <c r="C6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>11</v>
@@ -1240,7 +1252,7 @@
         <v>149</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -1283,7 +1295,7 @@
         <v>150</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>142</v>
@@ -1330,7 +1342,7 @@
         <v>134</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -1371,7 +1383,7 @@
         <v>134</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1412,7 +1424,7 @@
         <v>134</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -1494,7 +1506,7 @@
         <v>134</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -1537,7 +1549,7 @@
         <v>134</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -1579,7 +1591,9 @@
       <c r="L15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
     </row>
@@ -1620,9 +1634,7 @@
       <c r="L16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="M16" s="9"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
@@ -3280,7 +3292,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$9</xm:f>
@@ -3309,7 +3321,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M113</xm:sqref>
+          <xm:sqref>M17:M113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$J$2:$J$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3355,8 +3373,8 @@
       <c r="F2" t="s">
         <v>122</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>135</v>
@@ -3372,8 +3390,8 @@
       <c r="F3" t="s">
         <v>123</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>154</v>
       </c>
       <c r="J3" t="s">
         <v>136</v>
@@ -3417,6 +3435,9 @@
       <c r="F6" t="s">
         <v>126</v>
       </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3427,6 +3448,9 @@
       </c>
       <c r="F7" t="s">
         <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">

--- a/src/assets/docs/Import_Khach_Hang.xlsx
+++ b/src/assets/docs/Import_Khach_Hang.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="166">
   <si>
     <t>VÕ VĂN HÙNG</t>
   </si>
@@ -494,6 +494,33 @@
   </si>
   <si>
     <t>Thay nhớt</t>
+  </si>
+  <si>
+    <t>SIRIUS</t>
+  </si>
+  <si>
+    <t>JUPITER</t>
+  </si>
+  <si>
+    <t>EXCITER</t>
+  </si>
+  <si>
+    <t>FREE GO</t>
+  </si>
+  <si>
+    <t>NOZZA GRANDE</t>
+  </si>
+  <si>
+    <t>ACRUZO</t>
+  </si>
+  <si>
+    <t>JANUS</t>
+  </si>
+  <si>
+    <t>NVX 125</t>
+  </si>
+  <si>
+    <t>XE KHÁC</t>
   </si>
 </sst>
 </file>
@@ -929,9 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1067,7 +1092,7 @@
         <v>123</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>62</v>
@@ -1108,7 +1133,7 @@
         <v>129</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>63</v>
@@ -1153,7 +1178,7 @@
         <v>125</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>64</v>
@@ -1196,7 +1221,7 @@
         <v>125</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>65</v>
@@ -1237,7 +1262,7 @@
         <v>125</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>66</v>
@@ -1280,7 +1305,7 @@
         <v>125</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>152</v>
@@ -1327,7 +1352,7 @@
         <v>126</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>152</v>
@@ -1369,7 +1394,9 @@
       <c r="G10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>67</v>
       </c>
@@ -1411,7 +1438,7 @@
         <v>129</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="8" t="s">
@@ -1452,7 +1479,7 @@
         <v>125</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>68</v>
@@ -1493,7 +1520,7 @@
         <v>127</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>69</v>
@@ -1534,7 +1561,7 @@
         <v>128</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>70</v>
@@ -1577,7 +1604,7 @@
         <v>122</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>71</v>
@@ -1620,7 +1647,7 @@
         <v>124</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>72</v>
@@ -3292,7 +3319,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$9</xm:f>
@@ -3303,7 +3330,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$C$2:$C$43</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H113</xm:sqref>
+          <xm:sqref>H17:H113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3329,6 +3356,12 @@
           </x14:formula1>
           <xm:sqref>M2:M16</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$2:$C$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H16</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3337,7 +3370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3651,6 +3684,51 @@
         <v>119</v>
       </c>
     </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
